--- a/html特殊字符编码表.xlsx
+++ b/html特殊字符编码表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -1336,19 +1336,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1356,7 +1356,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1377,7 +1377,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1385,7 +1385,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1491,16 +1491,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1542,7 +1550,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1574,9 +1582,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1608,6 +1617,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1783,24 +1793,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
@@ -1832,7 +1842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1">
+    <row r="2" spans="1:9" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1861,7 +1871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1">
+    <row r="3" spans="1:9" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1890,7 +1900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
+    <row r="4" spans="1:9" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -1919,7 +1929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1">
+    <row r="5" spans="1:9" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1">
+    <row r="6" spans="1:9" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1">
+    <row r="7" spans="1:9" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
@@ -2006,7 +2016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
+    <row r="8" spans="1:9" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
@@ -2035,7 +2045,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1">
+    <row r="9" spans="1:9" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -2064,7 +2074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1">
+    <row r="10" spans="1:9" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
@@ -2093,7 +2103,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1">
+    <row r="11" spans="1:9" thickBot="1">
       <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
@@ -2122,7 +2132,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
+    <row r="12" spans="1:9" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>93</v>
       </c>
@@ -2151,7 +2161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
+    <row r="13" spans="1:9" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>102</v>
       </c>
@@ -2180,7 +2190,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1">
+    <row r="14" spans="1:9" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
@@ -2209,7 +2219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1">
+    <row r="15" spans="1:9" thickBot="1">
       <c r="A15" s="7" t="s">
         <v>120</v>
       </c>
@@ -2238,7 +2248,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1">
+    <row r="16" spans="1:9" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>129</v>
       </c>
@@ -2267,7 +2277,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
+    <row r="17" spans="1:9" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>138</v>
       </c>
@@ -2296,7 +2306,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1">
+    <row r="18" spans="1:9" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>147</v>
       </c>
@@ -2325,7 +2335,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1">
+    <row r="19" spans="1:9" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>156</v>
       </c>
@@ -2354,7 +2364,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
+    <row r="20" spans="1:9" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>165</v>
       </c>
@@ -2383,7 +2393,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
+    <row r="21" spans="1:9" thickBot="1">
       <c r="A21" s="7" t="s">
         <v>174</v>
       </c>
@@ -2412,7 +2422,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
+    <row r="22" spans="1:9" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>182</v>
       </c>
@@ -2441,7 +2451,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
+    <row r="23" spans="1:9" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>191</v>
       </c>
@@ -2470,7 +2480,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
+    <row r="24" spans="1:9" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>200</v>
       </c>
@@ -2499,7 +2509,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1">
+    <row r="25" spans="1:9" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>209</v>
       </c>
@@ -2528,7 +2538,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1">
+    <row r="26" spans="1:9" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>218</v>
       </c>
@@ -2557,7 +2567,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1">
+    <row r="27" spans="1:9" thickBot="1">
       <c r="A27" s="7" t="s">
         <v>227</v>
       </c>
@@ -2586,7 +2596,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1">
+    <row r="28" spans="1:9" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>236</v>
       </c>
@@ -2615,7 +2625,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1">
+    <row r="29" spans="1:9" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>245</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1">
+    <row r="30" spans="1:9" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>254</v>
       </c>
@@ -2673,7 +2683,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1">
+    <row r="31" spans="1:9" thickBot="1">
       <c r="A31" s="7" t="s">
         <v>262</v>
       </c>
@@ -2702,7 +2712,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1">
+    <row r="32" spans="1:9" thickBot="1">
       <c r="A32" s="7" t="s">
         <v>271</v>
       </c>
@@ -2731,7 +2741,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1">
+    <row r="33" spans="1:9" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>280</v>
       </c>
@@ -2760,7 +2770,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1">
+    <row r="34" spans="1:9" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>289</v>
       </c>
@@ -2789,7 +2799,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
+    <row r="35" spans="1:9" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>297</v>
       </c>
@@ -2818,7 +2828,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1">
+    <row r="36" spans="1:9" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>306</v>
       </c>
@@ -2847,7 +2857,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1">
+    <row r="37" spans="1:9" thickBot="1">
       <c r="A37" s="7" t="s">
         <v>315</v>
       </c>
@@ -2876,7 +2886,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1">
+    <row r="38" spans="1:9" thickBot="1">
       <c r="A38" s="7" t="s">
         <v>324</v>
       </c>
@@ -2905,7 +2915,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1">
+    <row r="39" spans="1:9" thickBot="1">
       <c r="A39" s="7" t="s">
         <v>332</v>
       </c>
@@ -2934,7 +2944,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1">
+    <row r="40" spans="1:9" thickBot="1">
       <c r="A40" s="7" t="s">
         <v>341</v>
       </c>
@@ -2963,7 +2973,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1">
+    <row r="41" spans="1:9" thickBot="1">
       <c r="A41" s="7" t="s">
         <v>350</v>
       </c>
@@ -2992,7 +3002,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1">
+    <row r="42" spans="1:9" thickBot="1">
       <c r="A42" s="7" t="s">
         <v>359</v>
       </c>
@@ -3019,7 +3029,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1">
+    <row r="43" spans="1:9" thickBot="1">
       <c r="A43" s="7" t="s">
         <v>367</v>
       </c>
@@ -3048,7 +3058,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1">
+    <row r="44" spans="1:9" thickBot="1">
       <c r="A44" s="7" t="s">
         <v>376</v>
       </c>
@@ -3077,7 +3087,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1">
+    <row r="45" spans="1:9" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>385</v>
       </c>
@@ -3106,7 +3116,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1">
+    <row r="46" spans="1:9" thickBot="1">
       <c r="A46" s="7" t="s">
         <v>394</v>
       </c>
@@ -3133,7 +3143,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1">
+    <row r="47" spans="1:9" thickBot="1">
       <c r="A47" s="7" t="s">
         <v>402</v>
       </c>
@@ -3162,7 +3172,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1">
+    <row r="48" spans="1:9" thickBot="1">
       <c r="A48" s="7" t="s">
         <v>411</v>
       </c>
@@ -3191,7 +3201,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1">
+    <row r="49" spans="1:10" thickBot="1">
       <c r="A49" s="7" t="s">
         <v>420</v>
       </c>
@@ -3220,7 +3230,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1">
+    <row r="50" spans="1:10" thickBot="1">
       <c r="A50" s="7" t="s">
         <v>429</v>
       </c>
@@ -3675,12 +3685,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3689,12 +3699,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
